--- a/data/financial_statements/sofp/SBNY.xlsx
+++ b/data/financial_statements/sofp/SBNY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,637 +584,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>5954643000</v>
+      </c>
+      <c r="C2">
         <v>11469920000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>14578360000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>26324290000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>29620670000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>28835660000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>24979970000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>19748310000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12348330000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6413237000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4570768000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1553021000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>789832000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>869924000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>324374000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>479388000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>317255000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>195404000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>543919000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>842531000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>335466000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>293758000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>532048000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>731538000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>538951000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>686529100</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>290230000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>307001000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>341546000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>288002000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>98207000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>258286000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>299078000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>315698000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>271452000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>117005000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>143977000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>67607000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>137900000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>96338000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>80793450000</v>
+      </c>
+      <c r="C3">
         <v>85772920000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>87298160000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>93307340000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>94702670000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>88098130000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>79830740000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>70815910000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>61358300000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>52810500000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>49821240000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>42653450000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>40087590000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>38989430000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>38466410000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>37969150000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>37137510000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>35738350000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>35269070000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>34545330000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>33301390000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>31760380000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>31166010000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>30914340000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>30031110000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>28865550000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>27372770000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>25636180000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>24489450000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>23024070000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>20995310000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>19726310000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>18620380000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>17212240000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>16025570000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>14692640000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>14020800000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>12621810000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>11689630000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>10866070000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>117229000</v>
+      </c>
+      <c r="C4">
         <v>111457000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>104218000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>98937000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>92232000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>88872000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>84097000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>79668000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>80274000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>79370000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>75121000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>75249000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>66419000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>57723000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>56854000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>54085000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>59051000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>69062000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>66499000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>62175000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>61571000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>60025000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>56337000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>53917000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>50698000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>47668000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>46373000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>45547000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>44161000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>41925000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>40608000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>40310000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>40996000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>39752000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>40837000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>39591000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>36331000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>36351000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>36626000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>34956000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>26934780000</v>
+      </c>
+      <c r="C5">
         <v>26164480000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>26446940000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>26402640000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22317840000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18294220000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16110220000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>13401920000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>11344920000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9757197000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>9444693000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9379230000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9477173000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>9440649000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>9428254000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>9589665000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9450014000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>9354239000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>9174152000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>9203490000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>9178016000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>8950639000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>8934626000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>8748585000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>8506102000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>8479026000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>8675356000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>8794080000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>8528311000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>8504127000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>8496136000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>8524358000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>8368348000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>8381425000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>8125298000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>8015380000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>7938862000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>7981835000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>7599353000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>7074720000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
         <v>29000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>32000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>44000000</v>
-      </c>
-      <c r="K6">
-        <v>46000000</v>
       </c>
       <c r="L6">
         <v>46000000</v>
@@ -1108,376 +1234,388 @@
       <c r="M6">
         <v>46000000</v>
       </c>
+      <c r="N6">
+        <v>46000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2268928000</v>
+      </c>
+      <c r="C7">
         <v>2163427000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1857245000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1806192000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1106694000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1146973000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>633306000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>843398000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>867444000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>896933000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>792009000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>749008000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>743053000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>700168000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>702886000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>705092000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>718240000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>709058000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>705765000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>624638000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>576741000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>555883000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>561642000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>548488000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>459700000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>400077000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>452336000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>421968000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>388623000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>350406000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>437417000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>298214000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>288918000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>317071000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>335294000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>356811000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>380666000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>366486000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>396866000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>290896000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>29320930000</v>
+      </c>
+      <c r="C8">
         <v>28439360000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>28408410000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28307770000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>23516770000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>19530060000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>16827620000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14324980000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12292640000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10733500000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10311820000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10203490000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10286640000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>10198540000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>10187990000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10348840000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>10227300000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>10132360000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>9946416000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>9890303000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>9816328000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>9566547000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>9552604000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>9350990000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>9016500000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>8926771000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>9174065000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>9261595000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>8961095000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>8896458000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>8974161000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>8862882000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>8698262000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8738248000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>8501429000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>8411782000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>8355859000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>8384672000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>8032845000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>7400572000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>110363600000</v>
+      </c>
+      <c r="C9">
         <v>114468700000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>115966800000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>121847300000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>118445400000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>107850700000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>96887800000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>85382200000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>73888340000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>63760310000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>60349810000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>53074710000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>50591810000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>49411760000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>48876880000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>48546450000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>47364820000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>45870710000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>45215480000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>44435630000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>43117720000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>41326930000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>40718610000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>40265340000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>39047610000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>37792320000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>36546840000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>34897770000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>33450550000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>31920520000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>29969470000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>28589190000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>27318640000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>25950480000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>24526990000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>23104420000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>22376660000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>21006480000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>19722470000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>18266640000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>150000000</v>
@@ -1510,1032 +1648,1056 @@
         <v>150000000</v>
       </c>
       <c r="L10">
+        <v>150000000</v>
+      </c>
+      <c r="M10">
         <v>520000000</v>
-      </c>
-      <c r="M10">
-        <v>150000000</v>
       </c>
       <c r="N10">
         <v>150000000</v>
       </c>
       <c r="O10">
+        <v>150000000</v>
+      </c>
+      <c r="P10">
         <v>254000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1203000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>820000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>575000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>585000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>715000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>790000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>517000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>710000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>375000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>893000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>395000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>585000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>845000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>817000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>755000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>868000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>570000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>715000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>645000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>670000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>979000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1065000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1224000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1042000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>977000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>88589730000</v>
+      </c>
+      <c r="C11">
         <v>102775500000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>104119000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>109155100000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>106132800000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>95566340000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>85562480000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>73974580000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>63315320000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>54338700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50231880000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>42240820000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>40383210000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>39056890000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>37540460000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>36622590000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>36378770000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>36091230000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>34993740000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>34817730000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>33439830000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>33677870000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>33168990000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>32935200000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>31861260000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>31395370000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>29578770000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>28106610000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>26773920000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>26611290000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>24455150000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>24025570000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>22620280000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>21320440000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>19758010000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>18306730000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>17057100000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>16047380000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>15272430000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>14800560000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1473880000</v>
+      </c>
+      <c r="C12">
         <v>1540411000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1231230000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1088126000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>857882000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>969944000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>739064000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>751751000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>662925000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>748181000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>520173000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>439774000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>472554000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>489955000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>555652000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>488658000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>530729000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>498514000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>436350000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>359150000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>403821000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>397923000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>184490000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>397586000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>373599000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>252909000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>252221000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>277163000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>247625000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>237389000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>261837000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>153512000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>151964000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>153415000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>162453000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>116230000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>149314000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>154200000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>176612000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>173936000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>159000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>153000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>164000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2630000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2606000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2595000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2228000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2121000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1995000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2828000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3911000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3258000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>90213610000</v>
+      </c>
+      <c r="C14">
         <v>104465900000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>105500300000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>110393200000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>107140700000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>96686290000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>86451540000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>74876330000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>64128250000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>55236880000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>50902050000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>43200590000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>41005760000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>39696840000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>38350110000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>38314240000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>37729500000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>37164740000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>36015090000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>35891880000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>34633650000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>34592790000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>34063480000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>33707790000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>33127860000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>32043280000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>30415990000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>29228770000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>27838550000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>27603680000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>25584990000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>24749090000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>23487240000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>22118850000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>20590460000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>19401960000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>18271410000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>17425570000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>16491040000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>15951500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>11855380000</v>
+      </c>
+      <c r="C15">
         <v>2026018000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2145443000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3020092000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3209473000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3234118000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3333764000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3593372000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3667833000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3296401000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4341053000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4865708000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4598263000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4725912000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5620932000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>5435734000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>5228174000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4467974000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>5052774000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4542577000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4452381000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2802181000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2857881000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2792683000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2307488000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2187445000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2636354000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2300000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2720163000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1495163000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1685163000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1220163000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1335163000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1430163000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1646313000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1790313000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2305313000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1820313000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1525163000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>600163000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1541000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1231000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1088000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>858000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>970000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>739000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>752000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>663000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>748000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>520000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>440000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>472000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>11855380000</v>
+      </c>
+      <c r="C17">
         <v>2026018000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2145443000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3020092000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3209473000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3234118000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3333764000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3593372000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3667833000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3296401000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4341053000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4865708000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>4598263000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>4725912000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>5620932000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5435734000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5228174000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>4467974000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>5052774000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4542577000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4452381000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2802181000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>2857881000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>2792683000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2307488000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2187445000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2636354000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>2300000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2720163000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1495163000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1685163000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1220163000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1335163000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1430163000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1646313000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1790313000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>2305313000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1820313000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1525163000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>600163000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>102350500000</v>
+      </c>
+      <c r="C18">
         <v>106778200000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>107935000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>113674100000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>110604800000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>100171600000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>90043230000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>78739790000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>68061440000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>58777110000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>55487230000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>48310750000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>45846610000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>44669900000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>44215150000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>43994410000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>42957680000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>41632710000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>41067860000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>40434460000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>39086030000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>37394970000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>36921360000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>36500470000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>35435350000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>34230720000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>33052350000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>31528780000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>30558710000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>29098850000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>27270150000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>25969250000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>24822400000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>23549020000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>22236770000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>21192270000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>20576720000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>19245890000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>18016210000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>16551660000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>4551819000</v>
+      </c>
+      <c r="C19">
         <v>4539428000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>4524343000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4509080000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3763810000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3751582000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3084743000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3072926000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2583514000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1862142000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1848634000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1835576000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1871571000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1861197000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1847042000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1833105000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1862896000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1848624000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1835574000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1822016000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1809642000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1798605000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1786162000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1773806000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1763100000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1752178000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1741240000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1726791000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1399501000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1390484000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1380929000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1363557000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1348661000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1340773000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1295448000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1027607000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1013900000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1008994000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1003224000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>998166000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>7000</v>
@@ -2561,10 +2723,13 @@
       <c r="I20">
         <v>7000</v>
       </c>
+      <c r="J20">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>629000</v>
@@ -2576,19 +2741,19 @@
         <v>629000</v>
       </c>
       <c r="E21">
-        <v>606000</v>
+        <v>629000</v>
       </c>
       <c r="F21">
         <v>606000</v>
       </c>
       <c r="G21">
+        <v>606000</v>
+      </c>
+      <c r="H21">
         <v>577000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>578000</v>
-      </c>
-      <c r="I21">
-        <v>555000</v>
       </c>
       <c r="J21">
         <v>555000</v>
@@ -2600,7 +2765,7 @@
         <v>555000</v>
       </c>
       <c r="M21">
-        <v>554000</v>
+        <v>555000</v>
       </c>
       <c r="N21">
         <v>554000</v>
@@ -2621,10 +2786,10 @@
         <v>554000</v>
       </c>
       <c r="T21">
+        <v>554000</v>
+      </c>
+      <c r="U21">
         <v>553000</v>
-      </c>
-      <c r="U21">
-        <v>550000</v>
       </c>
       <c r="V21">
         <v>550000</v>
@@ -2636,19 +2801,19 @@
         <v>550000</v>
       </c>
       <c r="Y21">
-        <v>546000</v>
+        <v>550000</v>
       </c>
       <c r="Z21">
         <v>546000</v>
       </c>
       <c r="AA21">
+        <v>546000</v>
+      </c>
+      <c r="AB21">
         <v>537000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>536000</v>
-      </c>
-      <c r="AC21">
-        <v>509000</v>
       </c>
       <c r="AD21">
         <v>509000</v>
@@ -2657,22 +2822,22 @@
         <v>509000</v>
       </c>
       <c r="AF21">
+        <v>509000</v>
+      </c>
+      <c r="AG21">
         <v>507000</v>
-      </c>
-      <c r="AG21">
-        <v>503000</v>
       </c>
       <c r="AH21">
         <v>503000</v>
       </c>
       <c r="AI21">
+        <v>503000</v>
+      </c>
+      <c r="AJ21">
         <v>500000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>476000</v>
-      </c>
-      <c r="AK21">
-        <v>473000</v>
       </c>
       <c r="AL21">
         <v>473000</v>
@@ -2683,676 +2848,691 @@
       <c r="AN21">
         <v>473000</v>
       </c>
+      <c r="AO21">
+        <v>473000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>5457886000</v>
+      </c>
+      <c r="C22">
         <v>5201514000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4887453000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4592691000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4298527000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4069670000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3871125000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3698195000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3548260000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3405273000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3296750000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3209564000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3172273000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3079002000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2960963000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2843982000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2730899000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2601073000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2476623000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2322037000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2290537000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2175676000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>2051205000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>2037248000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1903332000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1789398000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1713288000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1611046000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1507011000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1404027000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1307802000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1217340000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1133950000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1052544000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>975739000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>903257000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>837250000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>772914000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>712746000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>659144000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23">
         <v>232531000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>232647000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>232703000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>232817000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>233570000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>146346000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>71345000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>21488000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>42680000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>113000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>171000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>5684000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>5765000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4973000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>926000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>771000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>8013094000</v>
+      </c>
+      <c r="C24">
         <v>7690517000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>8031799000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>8173154000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>7840611000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>7679132000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>6844556000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>6642396000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>5826902000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4983199000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4862582000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>4763961000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>4745198000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>4741856000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>4661723000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>4552043000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>4407140000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>4237997000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>4147623000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>4001172000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>4031691000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>3931953000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3797246000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3764863000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3612264000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3561597000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3494486000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>3368997000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2891834000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>2821677000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2699320000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>2619942000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>2496238000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>2401467000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2290223000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>1912150000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1799939000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1760596000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1706267000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1714981000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>8013101000</v>
+      </c>
+      <c r="C25">
         <v>7690523000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>8031806000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>8173161000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7840618000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7679139000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6844563000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6642403000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>5826909000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4983199000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4862582000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4763961000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4745198000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>4741856000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>4661724000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>4552043000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>4407140000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4237997000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>4147623000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>4001172000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>4031691000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3931953000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3797246000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3764863000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3612264000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3561597000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3494486000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3368997000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>2891834000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>2821677000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>2699320000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2619942000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2496238000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2401467000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2290223000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1912150000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1799939000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1760596000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1706267000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1714981000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>110363600000</v>
+      </c>
+      <c r="C26">
         <v>114468700000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>115966800000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>121847300000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>118445400000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>107850700000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>96887800000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>85382200000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>73888340000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>63760310000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>60349810000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>53074710000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>50591810000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>49411760000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>48876880000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>48546450000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>47364820000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>45870710000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>45215480000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>44435630000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>43117720000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>41326930000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>40718610000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>40265340000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>39047610000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>37792320000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>36546840000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>34897770000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>33450550000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>31920520000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>29969470000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>28589190000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>27318640000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>25950480000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>24526990000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>23104420000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>22376660000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>21006480000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>19722470000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>18266640000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>62929000</v>
+      </c>
+      <c r="C27">
         <v>62927000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>62929000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>63065000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>60632000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>60633000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>57762000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>57790000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>53565000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>53563000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>53568000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>53565000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>53520000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>54243000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>54870000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>55275000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>55039000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>55383000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>55351000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>55349000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>54978000</v>
-      </c>
-      <c r="V27">
-        <v>54974000</v>
       </c>
       <c r="W27">
         <v>54974000</v>
       </c>
       <c r="X27">
+        <v>54974000</v>
+      </c>
+      <c r="Y27">
         <v>54975000</v>
-      </c>
-      <c r="Y27">
-        <v>54611000</v>
       </c>
       <c r="Z27">
         <v>54611000</v>
       </c>
       <c r="AA27">
+        <v>54611000</v>
+      </c>
+      <c r="AB27">
         <v>53683000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>53606000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>50901000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>50900000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>50876000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>50670000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>50318000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>50316000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>49999000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>47600000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>47293000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>47280000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>47263000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>47259000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>730000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>730000</v>
@@ -3375,370 +3555,382 @@
       <c r="I28">
         <v>730000</v>
       </c>
+      <c r="J28">
+        <v>730000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>8013102000</v>
+      </c>
+      <c r="C29">
         <v>7690516000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>8031805000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>8173164000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7840617000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7679141000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6844570000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6642406000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5826906000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>4983199000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4862582000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4763961000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>4745199000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>4741859000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>4661727000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>4552043000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>4407141000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>4237996000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>4147625000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>4001172000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4031691000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3931953000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3797246000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3764863000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3612262000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3561598000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3494488000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3368998000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>2891836000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2821676000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2699320000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>2619943000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>2496238000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>2401467000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>2290223000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1912150000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1799938000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1760596000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1706268000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1714982000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>5900737000</v>
+      </c>
+      <c r="C30">
         <v>-9284902000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-12279917000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-23140198000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-23781197000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-22995542000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-19051206000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-13926938000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-6559497000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1121836000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2598285000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>7223687000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>7066431000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3855988000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>5296558000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4956346000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4910919000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>4272570000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>4508855000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3700046000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4116915000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2508423000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2325833000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2061145000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1768537000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1500915900</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2346124000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1992999000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2378617000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1207161000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1586956000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>961877000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1036085000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1114465000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1374861000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1673308000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>2161336000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1752706000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1387263000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>503825000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>11855380000</v>
+      </c>
+      <c r="C31">
         <v>2185018000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2298443000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3184092000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5839473000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5840118000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5928764000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5821372000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5788833000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5291401000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>7169053000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>8776708000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>7856263000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>4725912000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>5620932000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>5435734000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>5228174000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>4467974000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>5052774000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4542577000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4452381000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>2802181000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>2857881000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>2792683000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>2307488000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>2187445000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>2636354000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>2300000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2720163000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1495163000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1685163000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1220163000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1335163000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1430163000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1646313000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1790313000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>2305313000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1820313000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1525163000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>600163000</v>
       </c>
     </row>
